--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X31 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/27Sept2013_Xining_Physioflow_X27X32/X31 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>45w</t>
-  </si>
-  <si>
-    <t>90w</t>
-  </si>
-  <si>
-    <t>105w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -156,31 +135,395 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
+    <t>45w</t>
+  </si>
+  <si>
+    <t>90w</t>
+  </si>
+  <si>
+    <t>105w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>---------------</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -188,20 +531,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -209,6 +841,1158 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>7.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.66</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.84</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.82</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>15.39</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>15.03</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>15.61</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.36</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>16.55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>16.79</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.27</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.39</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="569249956"/>
+        <c:axId val="273268215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="569249956"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="273268215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="273268215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="569249956"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>147320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="10388600"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -492,21 +2276,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L33" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E6" sqref="A6:A57 E6:E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -587,52 +2371,52 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="21:35">
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
@@ -649,12 +2433,12 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.95494212962962965</v>
+        <v>0.95494212962963</v>
       </c>
       <c r="C6">
         <v>91</v>
@@ -717,12 +2501,12 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.95505787037037038</v>
+        <v>0.95505787037037</v>
       </c>
       <c r="C7">
         <v>87</v>
@@ -761,7 +2545,7 @@
         <v>1181</v>
       </c>
       <c r="O7">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="P7">
         <v>52</v>
@@ -785,12 +2569,12 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.95517361111111121</v>
+        <v>0.955173611111111</v>
       </c>
       <c r="C8">
         <v>84</v>
@@ -802,7 +2586,7 @@
         <v>6.85</v>
       </c>
       <c r="F8">
-        <v>4.1100000000000003</v>
+        <v>4.11</v>
       </c>
       <c r="G8">
         <v>72</v>
@@ -838,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
@@ -856,12 +2640,12 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.95528935185185182</v>
+        <v>0.955289351851852</v>
       </c>
       <c r="C9">
         <v>77</v>
@@ -924,12 +2708,12 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.95540509259259254</v>
+        <v>0.955405092592593</v>
       </c>
       <c r="C10">
         <v>81</v>
@@ -992,12 +2776,12 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.95552083333333337</v>
+        <v>0.955520833333333</v>
       </c>
       <c r="C11">
         <v>78</v>
@@ -1060,12 +2844,12 @@
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.9556365740740741</v>
+        <v>0.955636574074074</v>
       </c>
       <c r="C12">
         <v>77</v>
@@ -1128,12 +2912,12 @@
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.95575231481481471</v>
+        <v>0.955752314814815</v>
       </c>
       <c r="C13">
         <v>80</v>
@@ -1196,12 +2980,12 @@
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.95586805555555554</v>
+        <v>0.955868055555556</v>
       </c>
       <c r="C14">
         <v>79</v>
@@ -1264,12 +3048,12 @@
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.95598379629629626</v>
+        <v>0.955983796296296</v>
       </c>
       <c r="C15">
         <v>84</v>
@@ -1332,12 +3116,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.95609953703703709</v>
+        <v>0.956099537037037</v>
       </c>
       <c r="C16">
         <v>80</v>
@@ -1400,12 +3184,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.95621527777777782</v>
+        <v>0.956215277777778</v>
       </c>
       <c r="C17">
         <v>81</v>
@@ -1453,72 +3237,72 @@
         <v>42</v>
       </c>
       <c r="U17" s="2">
-        <f>AVERAGE(C6:C17)</f>
-        <v>81.583333333333329</v>
+        <f t="shared" ref="U17:AI17" si="0">AVERAGE(C6:C17)</f>
+        <v>81.5833333333333</v>
       </c>
       <c r="V17" s="2">
-        <f>AVERAGE(D6:D17)</f>
+        <f t="shared" si="0"/>
         <v>81.25</v>
       </c>
       <c r="W17" s="2">
-        <f>AVERAGE(E6:E17)</f>
-        <v>6.7166666666666677</v>
+        <f t="shared" si="0"/>
+        <v>6.71666666666667</v>
       </c>
       <c r="X17" s="2">
-        <f>AVERAGE(F6:F17)</f>
-        <v>4.0316666666666672</v>
+        <f t="shared" si="0"/>
+        <v>4.03166666666667</v>
       </c>
       <c r="Y17" s="2">
-        <f>AVERAGE(G6:G17)</f>
-        <v>71.833333333333329</v>
+        <f t="shared" si="0"/>
+        <v>71.8333333333333</v>
       </c>
       <c r="Z17" s="2">
-        <f>AVERAGE(H6:H17)</f>
-        <v>490.16666666666669</v>
+        <f t="shared" si="0"/>
+        <v>490.166666666667</v>
       </c>
       <c r="AA17" s="2">
-        <f>AVERAGE(I6:I17)</f>
-        <v>203.41666666666666</v>
+        <f t="shared" si="0"/>
+        <v>203.416666666667</v>
       </c>
       <c r="AB17" s="2">
-        <f>AVERAGE(J6:J17)</f>
+        <f t="shared" si="0"/>
         <v>105.5</v>
       </c>
       <c r="AC17" s="2">
-        <f>AVERAGE(K6:K17)</f>
-        <v>56.916666666666664</v>
+        <f t="shared" si="0"/>
+        <v>56.9166666666667</v>
       </c>
       <c r="AD17" s="2">
-        <f>AVERAGE(L6:L17)</f>
-        <v>112.58333333333333</v>
+        <f t="shared" si="0"/>
+        <v>112.583333333333</v>
       </c>
       <c r="AE17" s="2">
-        <f>AVERAGE(M6:M17)</f>
-        <v>794.58333333333337</v>
+        <f t="shared" si="0"/>
+        <v>794.583333333333</v>
       </c>
       <c r="AF17" s="2">
-        <f>AVERAGE(N6:N17)</f>
+        <f t="shared" si="0"/>
         <v>1323.5</v>
       </c>
       <c r="AG17" s="2">
-        <f>AVERAGE(O6:O17)</f>
-        <v>3.6766666666666663</v>
+        <f t="shared" si="0"/>
+        <v>3.67666666666667</v>
       </c>
       <c r="AH17" s="2">
-        <f>AVERAGE(P6:P17)</f>
-        <v>59.666666666666664</v>
+        <f t="shared" si="0"/>
+        <v>59.6666666666667</v>
       </c>
       <c r="AI17" s="2">
-        <f>AVERAGE(Q6:Q17)</f>
+        <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.95633101851851843</v>
+        <v>0.956331018518518</v>
       </c>
       <c r="C18">
         <v>77</v>
@@ -1581,12 +3365,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.95644675925925926</v>
+        <v>0.956446759259259</v>
       </c>
       <c r="C19">
         <v>79</v>
@@ -1649,12 +3433,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.95656249999999998</v>
+        <v>0.9565625</v>
       </c>
       <c r="C20">
         <v>84</v>
@@ -1717,12 +3501,12 @@
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.9566782407407407</v>
+        <v>0.956678240740741</v>
       </c>
       <c r="C21">
         <v>86</v>
@@ -1785,12 +3569,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.95679398148148154</v>
+        <v>0.956793981481482</v>
       </c>
       <c r="C22">
         <v>83</v>
@@ -1838,7 +3622,7 @@
         <v>38</v>
       </c>
       <c r="S22" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
@@ -1856,12 +3640,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.95690972222222215</v>
+        <v>0.956909722222222</v>
       </c>
       <c r="C23">
         <v>94</v>
@@ -1924,12 +3708,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.95702546296296298</v>
+        <v>0.957025462962963</v>
       </c>
       <c r="C24">
         <v>98</v>
@@ -1938,7 +3722,7 @@
         <v>93</v>
       </c>
       <c r="E24">
-        <v>9.2100000000000009</v>
+        <v>9.21</v>
       </c>
       <c r="F24">
         <v>5.53</v>
@@ -1992,12 +3776,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.9571412037037037</v>
+        <v>0.957141203703704</v>
       </c>
       <c r="C25">
         <v>104</v>
@@ -2006,7 +3790,7 @@
         <v>94</v>
       </c>
       <c r="E25">
-        <v>9.8800000000000008</v>
+        <v>9.88</v>
       </c>
       <c r="F25">
         <v>5.93</v>
@@ -2060,12 +3844,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.95725694444444442</v>
+        <v>0.957256944444444</v>
       </c>
       <c r="C26">
         <v>107</v>
@@ -2128,12 +3912,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.95737268518518526</v>
+        <v>0.957372685185185</v>
       </c>
       <c r="C27">
         <v>112</v>
@@ -2196,12 +3980,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.95748842592592587</v>
+        <v>0.957488425925926</v>
       </c>
       <c r="C28">
         <v>118</v>
@@ -2264,12 +4048,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.9576041666666667</v>
+        <v>0.957604166666667</v>
       </c>
       <c r="C29">
         <v>123</v>
@@ -2332,12 +4116,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.95771990740740742</v>
+        <v>0.957719907407407</v>
       </c>
       <c r="C30">
         <v>126</v>
@@ -2400,12 +4184,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.95783564814814814</v>
+        <v>0.957835648148148</v>
       </c>
       <c r="C31">
         <v>127</v>
@@ -2468,12 +4252,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.95795138888888898</v>
+        <v>0.957951388888889</v>
       </c>
       <c r="C32">
         <v>126</v>
@@ -2536,12 +4320,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.95806712962962959</v>
+        <v>0.95806712962963</v>
       </c>
       <c r="C33">
         <v>127</v>
@@ -2604,12 +4388,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.95818287037037031</v>
+        <v>0.95818287037037</v>
       </c>
       <c r="C34">
         <v>131</v>
@@ -2672,12 +4456,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.95829861111111114</v>
+        <v>0.958298611111111</v>
       </c>
       <c r="C35">
         <v>130</v>
@@ -2740,12 +4524,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.95841435185185186</v>
+        <v>0.958414351851852</v>
       </c>
       <c r="C36">
         <v>130</v>
@@ -2808,12 +4592,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.9585300925925927</v>
+        <v>0.958530092592593</v>
       </c>
       <c r="C37">
         <v>132</v>
@@ -2876,12 +4660,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.95864583333333331</v>
+        <v>0.958645833333333</v>
       </c>
       <c r="C38">
         <v>130</v>
@@ -2944,12 +4728,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.95876157407407403</v>
+        <v>0.958761574074074</v>
       </c>
       <c r="C39">
         <v>130</v>
@@ -2997,7 +4781,7 @@
         <v>36</v>
       </c>
       <c r="S39" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
@@ -3015,12 +4799,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.95887731481481486</v>
+        <v>0.958877314814815</v>
       </c>
       <c r="C40">
         <v>130</v>
@@ -3083,12 +4867,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.95899305555555558</v>
+        <v>0.958993055555556</v>
       </c>
       <c r="C41">
         <v>139</v>
@@ -3151,12 +4935,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.9591087962962962</v>
+        <v>0.959108796296296</v>
       </c>
       <c r="C42">
         <v>144</v>
@@ -3195,7 +4979,7 @@
         <v>601</v>
       </c>
       <c r="O42">
-        <v>8.0399999999999991</v>
+        <v>8.04</v>
       </c>
       <c r="P42">
         <v>42</v>
@@ -3219,12 +5003,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.95922453703703703</v>
+        <v>0.959224537037037</v>
       </c>
       <c r="C43">
         <v>145</v>
@@ -3263,7 +5047,7 @@
         <v>595</v>
       </c>
       <c r="O43">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="P43">
         <v>47</v>
@@ -3287,12 +5071,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.95934027777777775</v>
+        <v>0.959340277777778</v>
       </c>
       <c r="C44">
         <v>148</v>
@@ -3340,7 +5124,7 @@
         <v>46</v>
       </c>
       <c r="S44" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
@@ -3358,12 +5142,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.95945601851851858</v>
+        <v>0.959456018518519</v>
       </c>
       <c r="C45">
         <v>151</v>
@@ -3402,7 +5186,7 @@
         <v>594</v>
       </c>
       <c r="O45">
-        <v>8.1300000000000008</v>
+        <v>8.13</v>
       </c>
       <c r="P45">
         <v>41</v>
@@ -3426,12 +5210,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.9595717592592593</v>
+        <v>0.959571759259259</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -3494,12 +5278,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.95968749999999992</v>
+        <v>0.9596875</v>
       </c>
       <c r="C47">
         <v>155</v>
@@ -3547,7 +5331,7 @@
         <v>59</v>
       </c>
       <c r="S47" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -3565,12 +5349,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.95980324074074075</v>
+        <v>0.959803240740741</v>
       </c>
       <c r="C48">
         <v>155</v>
@@ -3633,12 +5417,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.95991898148148147</v>
+        <v>0.959918981481481</v>
       </c>
       <c r="C49">
         <v>157</v>
@@ -3701,12 +5485,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.96003472222222219</v>
+        <v>0.960034722222222</v>
       </c>
       <c r="C50">
         <v>160</v>
@@ -3718,7 +5502,7 @@
         <v>15.61</v>
       </c>
       <c r="F50">
-        <v>9.3699999999999992</v>
+        <v>9.37</v>
       </c>
       <c r="G50">
         <v>73</v>
@@ -3745,7 +5529,7 @@
         <v>566</v>
       </c>
       <c r="O50">
-        <v>8.5500000000000007</v>
+        <v>8.55</v>
       </c>
       <c r="P50">
         <v>38</v>
@@ -3754,72 +5538,72 @@
         <v>61</v>
       </c>
       <c r="U50" s="2">
-        <f>AVERAGE(C47:C50)</f>
+        <f t="shared" ref="U50:AI50" si="1">AVERAGE(C47:C50)</f>
         <v>156.75</v>
       </c>
       <c r="V50" s="2">
-        <f>AVERAGE(D47:D50)</f>
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="W50" s="2">
-        <f>AVERAGE(E47:E50)</f>
+        <f t="shared" si="1"/>
         <v>15.36</v>
       </c>
       <c r="X50" s="2">
-        <f>AVERAGE(F47:F50)</f>
-        <v>9.2200000000000006</v>
+        <f t="shared" si="1"/>
+        <v>9.22</v>
       </c>
       <c r="Y50" s="2">
-        <f>AVERAGE(G47:G50)</f>
+        <f t="shared" si="1"/>
         <v>74.75</v>
       </c>
       <c r="Z50" s="2">
-        <f>AVERAGE(H47:H50)</f>
+        <f t="shared" si="1"/>
         <v>205.25</v>
       </c>
       <c r="AA50" s="2">
-        <f>AVERAGE(I47:I50)</f>
+        <f t="shared" si="1"/>
         <v>237.75</v>
       </c>
       <c r="AB50" s="2">
-        <f>AVERAGE(J47:J50)</f>
+        <f t="shared" si="1"/>
         <v>105.25</v>
       </c>
       <c r="AC50" s="2">
-        <f>AVERAGE(K47:K50)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="AD50" s="2">
-        <f>AVERAGE(L47:L50)</f>
+        <f t="shared" si="1"/>
         <v>129.25</v>
       </c>
       <c r="AE50" s="2">
-        <f>AVERAGE(M47:M50)</f>
+        <f t="shared" si="1"/>
         <v>345</v>
       </c>
       <c r="AF50" s="2">
-        <f>AVERAGE(N47:N50)</f>
+        <f t="shared" si="1"/>
         <v>575</v>
       </c>
       <c r="AG50" s="2">
-        <f>AVERAGE(O47:O50)</f>
-        <v>8.4124999999999996</v>
+        <f t="shared" si="1"/>
+        <v>8.4125</v>
       </c>
       <c r="AH50" s="2">
-        <f>AVERAGE(P47:P50)</f>
+        <f t="shared" si="1"/>
         <v>39.5</v>
       </c>
       <c r="AI50" s="2">
-        <f>AVERAGE(Q47:Q50)</f>
+        <f t="shared" si="1"/>
         <v>51.5</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.96015046296296302</v>
+        <v>0.960150462962963</v>
       </c>
       <c r="C51">
         <v>162</v>
@@ -3858,7 +5642,7 @@
         <v>540</v>
       </c>
       <c r="O51">
-        <v>8.9600000000000009</v>
+        <v>8.96</v>
       </c>
       <c r="P51">
         <v>47</v>
@@ -3882,12 +5666,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.96026620370370364</v>
+        <v>0.960266203703704</v>
       </c>
       <c r="C52">
         <v>164</v>
@@ -3950,12 +5734,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.96038194444444447</v>
+        <v>0.960381944444444</v>
       </c>
       <c r="C53">
         <v>166</v>
@@ -4003,75 +5787,75 @@
         <v>61</v>
       </c>
       <c r="S53" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="U53" s="2">
-        <f>AVERAGE(C47:C53)</f>
-        <v>159.85714285714286</v>
+        <f t="shared" ref="U53:AI53" si="2">AVERAGE(C47:C53)</f>
+        <v>159.857142857143</v>
       </c>
       <c r="V53" s="2">
-        <f>AVERAGE(D47:D53)</f>
-        <v>98.714285714285708</v>
+        <f t="shared" si="2"/>
+        <v>98.7142857142857</v>
       </c>
       <c r="W53" s="2">
-        <f>AVERAGE(E47:E53)</f>
-        <v>15.877142857142855</v>
+        <f t="shared" si="2"/>
+        <v>15.8771428571429</v>
       </c>
       <c r="X53" s="2">
-        <f>AVERAGE(F47:F53)</f>
-        <v>9.531428571428572</v>
+        <f t="shared" si="2"/>
+        <v>9.53142857142857</v>
       </c>
       <c r="Y53" s="2">
-        <f>AVERAGE(G47:G53)</f>
-        <v>74.285714285714292</v>
+        <f t="shared" si="2"/>
+        <v>74.2857142857143</v>
       </c>
       <c r="Z53" s="2">
-        <f>AVERAGE(H47:H53)</f>
-        <v>202.14285714285714</v>
+        <f t="shared" si="2"/>
+        <v>202.142857142857</v>
       </c>
       <c r="AA53" s="2">
-        <f>AVERAGE(I47:I53)</f>
-        <v>231.85714285714286</v>
+        <f t="shared" si="2"/>
+        <v>231.857142857143</v>
       </c>
       <c r="AB53" s="2">
-        <f>AVERAGE(J47:J53)</f>
-        <v>105.42857142857143</v>
+        <f t="shared" si="2"/>
+        <v>105.428571428571</v>
       </c>
       <c r="AC53" s="2">
-        <f>AVERAGE(K47:K53)</f>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="AD53" s="2">
-        <f>AVERAGE(L47:L53)</f>
-        <v>131.71428571428572</v>
+        <f t="shared" si="2"/>
+        <v>131.714285714286</v>
       </c>
       <c r="AE53" s="2">
-        <f>AVERAGE(M47:M53)</f>
-        <v>334.28571428571428</v>
+        <f t="shared" si="2"/>
+        <v>334.285714285714</v>
       </c>
       <c r="AF53" s="2">
-        <f>AVERAGE(N47:N53)</f>
-        <v>557.14285714285711</v>
+        <f t="shared" si="2"/>
+        <v>557.142857142857</v>
       </c>
       <c r="AG53" s="2">
-        <f>AVERAGE(O47:O53)</f>
-        <v>8.694285714285714</v>
+        <f t="shared" si="2"/>
+        <v>8.69428571428571</v>
       </c>
       <c r="AH53" s="2">
-        <f>AVERAGE(P47:P53)</f>
-        <v>40.142857142857146</v>
+        <f t="shared" si="2"/>
+        <v>40.1428571428571</v>
       </c>
       <c r="AI53" s="2">
-        <f>AVERAGE(Q47:Q53)</f>
-        <v>55.428571428571431</v>
+        <f t="shared" si="2"/>
+        <v>55.4285714285714</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.96049768518518519</v>
+        <v>0.960497685185185</v>
       </c>
       <c r="C54">
         <v>166</v>
@@ -4119,75 +5903,75 @@
         <v>62</v>
       </c>
       <c r="S54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U54" s="2">
-        <f>AVERAGE(C47:C54)</f>
+        <f t="shared" ref="U54:AI54" si="3">AVERAGE(C47:C54)</f>
         <v>160.625</v>
       </c>
       <c r="V54" s="2">
-        <f>AVERAGE(D47:D54)</f>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="W54" s="2">
-        <f>AVERAGE(E47:E54)</f>
-        <v>16.008749999999999</v>
+        <f t="shared" si="3"/>
+        <v>16.00875</v>
       </c>
       <c r="X54" s="2">
-        <f>AVERAGE(F47:F54)</f>
+        <f t="shared" si="3"/>
         <v>9.61</v>
       </c>
       <c r="Y54" s="2">
-        <f>AVERAGE(G47:G54)</f>
+        <f t="shared" si="3"/>
         <v>74.5</v>
       </c>
       <c r="Z54" s="2">
-        <f>AVERAGE(H47:H54)</f>
+        <f t="shared" si="3"/>
         <v>201.375</v>
       </c>
       <c r="AA54" s="2">
-        <f>AVERAGE(I47:I54)</f>
+        <f t="shared" si="3"/>
         <v>233.875</v>
       </c>
       <c r="AB54" s="2">
-        <f>AVERAGE(J47:J54)</f>
+        <f t="shared" si="3"/>
         <v>105.375</v>
       </c>
       <c r="AC54" s="2">
-        <f>AVERAGE(K47:K54)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="AD54" s="2">
-        <f>AVERAGE(L47:L54)</f>
+        <f t="shared" si="3"/>
         <v>131.875</v>
       </c>
       <c r="AE54" s="2">
-        <f>AVERAGE(M47:M54)</f>
+        <f t="shared" si="3"/>
         <v>331.625</v>
       </c>
       <c r="AF54" s="2">
-        <f>AVERAGE(N47:N54)</f>
+        <f t="shared" si="3"/>
         <v>552.75</v>
       </c>
       <c r="AG54" s="2">
-        <f>AVERAGE(O47:O54)</f>
-        <v>8.7662499999999994</v>
+        <f t="shared" si="3"/>
+        <v>8.76625</v>
       </c>
       <c r="AH54" s="2">
-        <f>AVERAGE(P47:P54)</f>
+        <f t="shared" si="3"/>
         <v>41.625</v>
       </c>
       <c r="AI54" s="2">
-        <f>AVERAGE(Q47:Q54)</f>
+        <f t="shared" si="3"/>
         <v>56.25</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.96061342592592591</v>
+        <v>0.960613425925926</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -4235,12 +6019,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.96072916666666675</v>
+        <v>0.960729166666667</v>
       </c>
       <c r="C56">
         <v>154</v>
@@ -4279,7 +6063,7 @@
         <v>539</v>
       </c>
       <c r="O56">
-        <v>8.9700000000000006</v>
+        <v>8.97</v>
       </c>
       <c r="P56">
         <v>64</v>
@@ -4288,12 +6072,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.96084490740740736</v>
+        <v>0.960844907407407</v>
       </c>
       <c r="C57">
         <v>147</v>
@@ -4332,7 +6116,7 @@
         <v>589</v>
       </c>
       <c r="O57">
-        <v>8.2100000000000009</v>
+        <v>8.21</v>
       </c>
       <c r="P57">
         <v>56</v>
@@ -4341,36 +6125,46 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>